--- a/TotalStation/15米环境信标广播信息.xlsx
+++ b/TotalStation/15米环境信标广播信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W-H\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BlueTooth\pos_bluetooth_matlab\TotalStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E2A2BB-7908-4AA3-8692-11322192AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B64A48-2250-4BCD-99BF-F96DD29D7351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,16 @@
     <sheet name="ap-info" sheetId="1" r:id="rId1"/>
     <sheet name="diagram" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -326,6 +335,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -598,6 +608,1284 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193EC6D1-CB5E-4945-989E-11C881C0815E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="5857875"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P30</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6F8ACF-4594-4531-B34D-0A8E974BD7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="4781550"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P32</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64248519-859B-470F-9292-789881E0694E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="4752975"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P31</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9687D1-608A-4ABF-9ED6-DA8C3BA4BCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="4800600"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P33</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B3E258-D556-4F10-9F2E-8B7E00482705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10296525" y="4800600"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P34</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB037FAB-6CDB-4478-92A9-FBF417A2AC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696700" y="4800600"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P35</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFF9D54-7EEB-4D06-9D63-EDC8952B57CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="4800600"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P36</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4B9A43-DA3C-4EBC-87CD-B01A52BE69B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="5876925"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P37</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13312071-E0B8-4371-8B60-45F4A9689A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744325" y="5886450"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P38</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2819BC7-178E-410B-86AD-15BBCF622596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="5876925"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P39</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE356F-CB9E-4359-AC2E-8CD6AF029D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="5895975"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P40</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210B1261-2F27-43F2-9694-9DE9D2F26B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="5905500"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P41</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC42642C-18C0-4A14-BEC1-A4D78C46AECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="7848600"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P42</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA80D570-9A9A-402E-AE0B-D356511074F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="7829550"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P43</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292C2F73-C7C4-4879-9E11-C1AEFF727DD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="7820025"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P44</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D03DB91-51C7-4C98-B9FE-6978D04AF307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="7810500"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P45</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A63C45-8D58-4D47-911D-C1FEF873BDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="7772400"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P46</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400559" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A0F105-C7DB-42DA-A528-CF16AE279F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="7705725"/>
+          <a:ext cx="400559" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P47</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -862,7 +2150,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1266,7 +2554,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1274,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B46915-C581-4273-94D7-7253FBB261E6}">
   <dimension ref="A65:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
